--- a/milestone2-responses.xlsx
+++ b/milestone2-responses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\Documents\Projects\Masters\UIUC\CS598-JBR\Project\Milestone2\CS598-ML4SE-ChatGPT-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAD8F9C-DD99-4016-8915-7A80456B34E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218B567F-A2DD-489A-A17D-97DFCFF06F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="516" yWindow="720" windowWidth="21300" windowHeight="11520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAVA" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">JAVA!$F$1:$F$969</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PYTHON!$D$1:$D$1000</definedName>
     <definedName name="Z_32A13621_C65F_40C8_899A_6E6ADD1DB7B7_.wvu.FilterData" localSheetId="1" hidden="1">PYTHON!$A$1:$AD$1000</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -20343,7 +20344,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -20353,7 +20354,7 @@
     <col min="3" max="3" width="0.33203125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="20.77734375" customWidth="1"/>
+    <col min="8" max="8" width="33.6640625" customWidth="1"/>
     <col min="9" max="9" width="42.44140625" customWidth="1"/>
     <col min="11" max="11" width="12.44140625" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
@@ -49594,10 +49595,11 @@
       <c r="M1000" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D1000" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <customSheetViews>
     <customSheetView guid="{32A13621-C65F-40C8-899A-6E6ADD1DB7B7}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AD1000" xr:uid="{700615E0-1D04-4E74-AA24-89A6F967D681}"/>
+      <autoFilter ref="A1:AD1000" xr:uid="{50D25964-FB12-424B-B181-F3901E486ED7}"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
